--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">Menge</t>
   </si>
@@ -55,7 +55,13 @@
     <t xml:space="preserve">RS232 TTL Konverter Stecker</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.de/dp/B0BNQ41QKQ</t>
+    <t xml:space="preserve">https://www.amazon.de/DollaTek-Serieller-Anschluss-Konverter-Sprungkabel/dp/B07DK3874B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Sub 9 Gender-Changer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/ASSMANN-AK-610502-000-I-Changer-Stecker-Kupplung/dp/B00BN6VQ4Y</t>
   </si>
   <si>
     <t xml:space="preserve">G&amp;G PLC 100</t>
@@ -125,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -146,6 +153,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,16 +198,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,84 +243,84 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>39.28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>9.49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>9.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>8.99</v>
+      <c r="D5" s="2" t="n">
+        <v>4.99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,161 +330,173 @@
       <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>129.99</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>10.49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>9.99</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>9.07</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>6.45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>25</v>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0"/>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.aliexpress.com/item/4000828878233.html"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.aliexpress.com/item/32872172334.html"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.amazon.de/gp/product/B092QNH5VQ"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.amazon.de/dp/B0BNQ41QKQ"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.amazon.de/PLC100B-C-Pr%C3%A4zisionswaage-Industriewaage-Tischwaage-Batteriebetrieb/dp/B00ZCRLPY6"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.amazon.de/dp/B08FFKZLYH"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.amazon.de/dp/B09DPF6JNW"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://www.amazon.de/dp/B01G0Q3RWU"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://www.ebay.de/itm/185812540010"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.amazon.de/DollaTek-Serieller-Anschluss-Konverter-Sprungkabel/dp/B07DK3874B"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.amazon.de/ASSMANN-AK-610502-000-I-Changer-Stecker-Kupplung/dp/B00BN6VQ4Y"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.amazon.de/PLC100B-C-Pr%C3%A4zisionswaage-Industriewaage-Tischwaage-Batteriebetrieb/dp/B00ZCRLPY6"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.amazon.de/dp/B08FFKZLYH"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.amazon.de/dp/B09DPF6JNW"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://www.amazon.de/dp/B01G0Q3RWU"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://www.ebay.de/itm/185812540010"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">Menge</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Bezugsquelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Preis</t>
+    <t xml:space="preserve">Preis mit Versand</t>
   </si>
   <si>
     <t xml:space="preserve">MKS DLC32-TS35-4988</t>
@@ -55,67 +55,43 @@
     <t xml:space="preserve">RS232 TTL Konverter Stecker</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.de/DollaTek-Serieller-Anschluss-Konverter-Sprungkabel/dp/B07DK3874B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Sub 9 Gender-Changer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.de/ASSMANN-AK-610502-000-I-Changer-Stecker-Kupplung/dp/B00BN6VQ4Y</t>
+    <t xml:space="preserve">https://ripper121.com/robo-trickler-bestellen/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nema 17 Schrittmotor 42x23mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/dp/B08FFKZLYH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alurohr 10x 8 x 140mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alu-profile-zuschnitt.de/aluprofile/alu-rohre/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 V DC 2 A 24 W Netzteil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/dp/B01G0Q3RWU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pin Dupont / Jumper Kabel female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.de/itm/185050868975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3 x 6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Druckteile</t>
   </si>
   <si>
     <t xml:space="preserve">G&amp;G PLC 100</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.de/PLC100B-C-Pr%C3%A4zisionswaage-Industriewaage-Tischwaage-Batteriebetrieb/dp/B00ZCRLPY6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nema 17 Schrittmotor 42x23mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.de/dp/B08FFKZLYH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alurohr 10x8mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.de/dp/B09DPF6JNW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 V DC 2 A 24 W Netzteil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.de/dp/B01G0Q3RWU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Pin Dupont / Jumper Kabel female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebay.de/itm/185812540010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3 Schrauben &amp; Muttern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PET Flasche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoboTrickler_Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D Print FDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GuG_Back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor_Joint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D Print SLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RoboTrickler_Ext</t>
+    <t xml:space="preserve">https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen</t>
   </si>
 </sst>
 </file>
@@ -198,7 +174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,10 +192,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,17 +212,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="69.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,21 +292,21 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4.99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.49</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,7 +320,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>129.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,7 +334,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>10.49</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,21 +348,21 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>9.99</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>9.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,105 +370,63 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6.45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.aliexpress.com/item/4000828878233.html"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.aliexpress.com/item/32872172334.html"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.amazon.de/gp/product/B092QNH5VQ"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://www.amazon.de/DollaTek-Serieller-Anschluss-Konverter-Sprungkabel/dp/B07DK3874B"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.amazon.de/ASSMANN-AK-610502-000-I-Changer-Stecker-Kupplung/dp/B00BN6VQ4Y"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.amazon.de/PLC100B-C-Pr%C3%A4zisionswaage-Industriewaage-Tischwaage-Batteriebetrieb/dp/B00ZCRLPY6"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.amazon.de/dp/B08FFKZLYH"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://www.amazon.de/dp/B09DPF6JNW"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://www.amazon.de/dp/B01G0Q3RWU"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://www.ebay.de/itm/185812540010"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://ripper121.com/robo-trickler-bestellen/"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.amazon.de/dp/B08FFKZLYH"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.alu-profile-zuschnitt.de/aluprofile/alu-rohre/"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.amazon.de/dp/B01G0Q3RWU"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.ebay.de/itm/185050868975"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://ripper121.com/robo-trickler-bestellen/"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://ripper121.com/robo-trickler-bestellen/"/>
+    <hyperlink ref="C13" r:id="rId11" display="https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t xml:space="preserve">Menge</t>
   </si>
@@ -34,52 +34,64 @@
     <t xml:space="preserve">Preis mit Versand</t>
   </si>
   <si>
-    <t xml:space="preserve">MKS DLC32-TS35-4988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.aliexpress.com/item/4000828878233.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKS DLC32 Acrylic box for TS35-DLC32</t>
+    <t xml:space="preserve">MKS DLC32-TS35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/KOOKYE-Printer-TS35-R-Offline-Controller/dp/B09N3HH27T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKS TS35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/KOOKYE-Controller-engraving-Alternate-versions/dp/B09J21K33F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/dp/B01N9QOJ99/ref=twister_B07ZQHN62Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKS DLC32 Enclosure or 3D Print</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.aliexpress.com/item/32872172334.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Kugellager 10 mm x 22 mm x 6 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.de/gp/product/B092QNH5VQ</t>
+    <t xml:space="preserve">Rillenkugellager 6900RS 10mmx22mmx6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/sourcing-map-Rillenkugellager-10mmx22mmx6mm-Kohlenstoffstahl/dp/B07H5J1JD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nema 17 Schrittmotor 42x23mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/dp/B08FFKZLYH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alurohr 10x 8 x 140mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.alu-profile-zuschnitt.de/aluprofile/alu-rohre/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 V DC 2 A 24 W Netzteil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/dp/B01G0Q3RWU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pin Dupont / Jumper Kabel female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebay.de/itm/185050868975</t>
   </si>
   <si>
     <t xml:space="preserve">RS232 TTL Konverter Stecker</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ripper121.com/robo-trickler-bestellen/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nema 17 Schrittmotor 42x23mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.de/dp/B08FFKZLYH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alurohr 10x 8 x 140mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.alu-profile-zuschnitt.de/aluprofile/alu-rohre/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 V DC 2 A 24 W Netzteil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.de/dp/B01G0Q3RWU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Pin Dupont / Jumper Kabel female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebay.de/itm/185050868975</t>
+    <t xml:space="preserve">https://strenuous.dev/robo-trickler-anfrag</t>
   </si>
   <si>
     <t xml:space="preserve">M3 x 6mm</t>
@@ -88,10 +100,31 @@
     <t xml:space="preserve">3D Druckteile</t>
   </si>
   <si>
+    <t xml:space="preserve">Summe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komplett Bausatz direkt vom Entwickler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passende Waagen:</t>
+  </si>
+  <si>
     <t xml:space="preserve">G&amp;G PLC 100</t>
   </si>
   <si>
     <t xml:space="preserve">https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G&amp;G JJ100B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://waage-shop.com/JJ-B-Praezisionwaage-Laborwaage-JJ100B-110g-0001g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oder jede ander mit RS232</t>
   </si>
 </sst>
 </file>
@@ -102,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,6 +164,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,6 +238,18 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -207,21 +264,127 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="69.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.89"/>
   </cols>
   <sheetData>
@@ -250,35 +413,35 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>39.28</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>9.49</v>
+        <v>38.39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9.6</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,16 +451,16 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>15</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -306,7 +469,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>10.49</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,7 +497,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11.57</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,21 +511,21 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.59</v>
+        <v>9.05</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,63 +533,130 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">SUM(D2:D13)</f>
+        <v>191.48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="1"/>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="1"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="1"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.aliexpress.com/item/4000828878233.html"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.aliexpress.com/item/32872172334.html"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.amazon.de/gp/product/B092QNH5VQ"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://ripper121.com/robo-trickler-bestellen/"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.amazon.de/dp/B08FFKZLYH"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.alu-profile-zuschnitt.de/aluprofile/alu-rohre/"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.amazon.de/dp/B01G0Q3RWU"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://www.ebay.de/itm/185050868975"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://ripper121.com/robo-trickler-bestellen/"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://ripper121.com/robo-trickler-bestellen/"/>
-    <hyperlink ref="C13" r:id="rId11" display="https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.amazon.de/KOOKYE-Printer-TS35-R-Offline-Controller/dp/B09N3HH27T"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.amazon.de/KOOKYE-Controller-engraving-Alternate-versions/dp/B09J21K33F"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.amazon.de/dp/B01N9QOJ99/ref=twister_B07ZQHN62Q"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.aliexpress.com/item/32872172334.html"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.amazon.de/sourcing-map-Rillenkugellager-10mmx22mmx6mm-Kohlenstoffstahl/dp/B07H5J1JD6"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.amazon.de/dp/B08FFKZLYH"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.alu-profile-zuschnitt.de/aluprofile/alu-rohre/"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.amazon.de/dp/B01G0Q3RWU"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://www.ebay.de/itm/185050868975"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://strenuous.dev/robo-trickler-anfrag"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://strenuous.dev/robo-trickler-anfrag"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://strenuous.dev/robo-trickler-anfrag"/>
+    <hyperlink ref="C16" r:id="rId13" display="https://strenuous.dev/robo-trickler-anfrag"/>
+    <hyperlink ref="C20" r:id="rId14" display="https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen"/>
+    <hyperlink ref="C21" r:id="rId15" display="https://waage-shop.com/JJ-B-Praezisionwaage-Laborwaage-JJ100B-110g-0001g"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t xml:space="preserve">Menge</t>
   </si>
@@ -103,10 +103,10 @@
     <t xml:space="preserve">Summe:</t>
   </si>
   <si>
-    <t xml:space="preserve">Komplett Bausatz direkt vom Entwickler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165€</t>
+    <t xml:space="preserve">Komplett Bausatz direkt vom Entwickler (deutlich günstiger)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertig aufgebaut &amp; Getesetet</t>
   </si>
   <si>
     <t xml:space="preserve">Passende Waagen:</t>
@@ -135,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,13 +165,8 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -219,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,6 +228,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,16 +243,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -378,14 +377,15 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,10 +395,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -406,10 +406,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="n">
@@ -417,13 +417,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="n">
@@ -431,7 +431,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -465,7 +465,7 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="n">
@@ -479,7 +479,7 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="n">
@@ -493,7 +493,7 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="n">
@@ -507,7 +507,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="n">
@@ -521,7 +521,7 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2" t="n">
@@ -535,7 +535,7 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="n">
@@ -549,7 +549,7 @@
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="2" t="n">
@@ -563,7 +563,7 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="2" t="n">
@@ -580,48 +580,43 @@
         <v>191.48</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-    </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>28</v>
+      <c r="D16" s="2" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,8 +650,9 @@
     <hyperlink ref="C12" r:id="rId11" display="https://strenuous.dev/robo-trickler-anfrag"/>
     <hyperlink ref="C13" r:id="rId12" display="https://strenuous.dev/robo-trickler-anfrag"/>
     <hyperlink ref="C16" r:id="rId13" display="https://strenuous.dev/robo-trickler-anfrag"/>
-    <hyperlink ref="C20" r:id="rId14" display="https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen"/>
-    <hyperlink ref="C21" r:id="rId15" display="https://waage-shop.com/JJ-B-Praezisionwaage-Laborwaage-JJ100B-110g-0001g"/>
+    <hyperlink ref="C17" r:id="rId14" display="https://strenuous.dev/robo-trickler-anfrag"/>
+    <hyperlink ref="C20" r:id="rId15" display="https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen"/>
+    <hyperlink ref="C21" r:id="rId16" display="https://waage-shop.com/JJ-B-Praezisionwaage-Laborwaage-JJ100B-110g-0001g"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Menge</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">A4988</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.de/dp/B01N9QOJ99/ref=twister_B07ZQHN62Q</t>
+    <t xml:space="preserve">https://shop.strenuous.dev/Motor-Treiber-A4988/P8</t>
   </si>
   <si>
     <t xml:space="preserve">MKS DLC32 Enclosure or 3D Print</t>
@@ -70,10 +70,10 @@
     <t xml:space="preserve">https://www.amazon.de/dp/B08FFKZLYH</t>
   </si>
   <si>
-    <t xml:space="preserve">Alurohr 10x 8 x 140mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.alu-profile-zuschnitt.de/aluprofile/alu-rohre/</t>
+    <t xml:space="preserve">Alurohr 10x 8 x 160mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.strenuous.dev/Alurohr-160mm/P15</t>
   </si>
   <si>
     <t xml:space="preserve">12 V DC 2 A 24 W Netzteil</t>
@@ -85,28 +85,40 @@
     <t xml:space="preserve">4 Pin Dupont / Jumper Kabel female</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ebay.de/itm/185050868975</t>
+    <t xml:space="preserve">https://shop.strenuous.dev/RS232-Kabel/P11</t>
   </si>
   <si>
     <t xml:space="preserve">RS232 TTL Konverter Stecker</t>
   </si>
   <si>
-    <t xml:space="preserve">https://strenuous.dev/robo-trickler-anfrag</t>
+    <t xml:space="preserve">https://shop.strenuous.dev/RS232-Stecker/P19.11</t>
   </si>
   <si>
     <t xml:space="preserve">M3 x 6mm</t>
   </si>
   <si>
+    <t xml:space="preserve">https://shop.strenuous.dev/M3x6-Linsenkopf-Schraube/P14</t>
+  </si>
+  <si>
     <t xml:space="preserve">3D Druckteile</t>
   </si>
   <si>
+    <t xml:space="preserve">https://shop.strenuous.dev/3D-Druck-Teile/P16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summe:</t>
   </si>
   <si>
-    <t xml:space="preserve">Komplett Bausatz direkt vom Entwickler (deutlich günstiger)</t>
+    <t xml:space="preserve">Komplett Bausatz direkt vom Entwickler (günstiger)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.strenuous.dev/Robo-Trickler/P1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Fertig aufgebaut &amp; Getesetet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shop.strenuous.dev/Robo-Trickler/P1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Passende Waagen:</t>
@@ -377,12 +389,12 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.04"/>
@@ -497,7 +509,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>14.77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,7 +562,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1</v>
@@ -561,43 +573,41 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="n">
         <f aca="false">SUM(D2:D13)</f>
-        <v>191.48</v>
+        <v>175.51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>250</v>
@@ -605,15 +615,15 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>115</v>
@@ -621,10 +631,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>240</v>
@@ -632,25 +642,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.amazon.de/KOOKYE-Printer-TS35-R-Offline-Controller/dp/B09N3HH27T"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.amazon.de/KOOKYE-Controller-engraving-Alternate-versions/dp/B09J21K33F"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.amazon.de/dp/B01N9QOJ99/ref=twister_B07ZQHN62Q"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://shop.strenuous.dev/Motor-Treiber-A4988/P8"/>
     <hyperlink ref="C5" r:id="rId4" display="https://www.aliexpress.com/item/32872172334.html"/>
     <hyperlink ref="C6" r:id="rId5" display="https://www.amazon.de/sourcing-map-Rillenkugellager-10mmx22mmx6mm-Kohlenstoffstahl/dp/B07H5J1JD6"/>
     <hyperlink ref="C7" r:id="rId6" display="https://www.amazon.de/dp/B08FFKZLYH"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.alu-profile-zuschnitt.de/aluprofile/alu-rohre/"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://shop.strenuous.dev/Alurohr-160mm/P15"/>
     <hyperlink ref="C9" r:id="rId8" display="https://www.amazon.de/dp/B01G0Q3RWU"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://www.ebay.de/itm/185050868975"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://strenuous.dev/robo-trickler-anfrag"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://strenuous.dev/robo-trickler-anfrag"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://strenuous.dev/robo-trickler-anfrag"/>
-    <hyperlink ref="C16" r:id="rId13" display="https://strenuous.dev/robo-trickler-anfrag"/>
-    <hyperlink ref="C17" r:id="rId14" display="https://strenuous.dev/robo-trickler-anfrag"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://shop.strenuous.dev/RS232-Kabel/P11"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://shop.strenuous.dev/RS232-Stecker/P19.11"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://shop.strenuous.dev/M3x6-Linsenkopf-Schraube/P14"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://shop.strenuous.dev/3D-Druck-Teile/P16"/>
+    <hyperlink ref="C16" r:id="rId13" display="https://shop.strenuous.dev/Robo-Trickler/P1.2"/>
+    <hyperlink ref="C17" r:id="rId14" display="https://shop.strenuous.dev/Robo-Trickler/P1.1"/>
     <hyperlink ref="C20" r:id="rId15" display="https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen"/>
     <hyperlink ref="C21" r:id="rId16" display="https://waage-shop.com/JJ-B-Praezisionwaage-Laborwaage-JJ100B-110g-0001g"/>
   </hyperlinks>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Menge</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">Bezugsquelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Preis mit Versand</t>
-  </si>
-  <si>
     <t xml:space="preserve">MKS DLC32-TS35</t>
   </si>
   <si>
@@ -106,10 +103,7 @@
     <t xml:space="preserve">https://shop.strenuous.dev/3D-Druck-Teile/P16</t>
   </si>
   <si>
-    <t xml:space="preserve">Summe:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komplett Bausatz direkt vom Entwickler (günstiger)</t>
+    <t xml:space="preserve">Komplett Bausatz</t>
   </si>
   <si>
     <t xml:space="preserve">https://shop.strenuous.dev/Robo-Trickler/P1.2</t>
@@ -130,7 +124,7 @@
     <t xml:space="preserve">https://waage-shop.com/PLC-Feinwaagen-Tischwaage-Praezisionswaagen</t>
   </si>
   <si>
-    <t xml:space="preserve">G&amp;G JJ100B</t>
+    <t xml:space="preserve">G&amp;G JJ100B Empfehlung für schnelles Trickeln</t>
   </si>
   <si>
     <t xml:space="preserve">https://waage-shop.com/JJ-B-Praezisionwaage-Laborwaage-JJ100B-110g-0001g</t>
@@ -389,7 +383,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,22 +404,17 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>42.95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,13 +422,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>38.39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,13 +433,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>5.99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,13 +444,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>9.65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,13 +455,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>6.99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,13 +466,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>14.99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,13 +477,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,13 +488,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>9.05</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,13 +499,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,13 +510,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,13 +521,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,57 +532,48 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <f aca="false">SUM(D2:D13)</f>
-        <v>175.51</v>
-      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>115</v>
@@ -631,10 +581,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>240</v>
@@ -642,7 +592,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
